--- a/captaincy.xlsx
+++ b/captaincy.xlsx
@@ -863,7 +863,7 @@
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1147,5 +1147,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>